--- a/CashFlow/CTSH_cashflow.xlsx
+++ b/CashFlow/CTSH_cashflow.xlsx
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>109000000.0</v>
+        <v>1457000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>70000000.0</v>
+        <v>1307000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>438898000.0</v>
+        <v>1235898000.0</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
